--- a/InputData/trans/MPoEFUbVT/Max Perc of Each Fuel Usable by Veh Tech.xlsx
+++ b/InputData/trans/MPoEFUbVT/Max Perc of Each Fuel Usable by Veh Tech.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="90" windowWidth="23955" windowHeight="12090"/>
+    <workbookView xWindow="360" yWindow="90" windowWidth="19420" windowHeight="11020"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="56">
   <si>
     <t>Sources:</t>
   </si>
@@ -207,6 +207,30 @@
   <si>
     <t>For nonroad modes, we use the same percentages as in the BAU case (see variable BPoEFUbVT),</t>
   </si>
+  <si>
+    <t>Plug-in Hybrid Vehicle Electricity Use</t>
+  </si>
+  <si>
+    <t>Technically, the maximum share of electricity usable by these vehicles is 100%.</t>
+  </si>
+  <si>
+    <t>However, this variable is used to help govern the way the LCFS policy works, and that</t>
+  </si>
+  <si>
+    <t>That would require drivers to only drive within their cars' electric ranges.</t>
+  </si>
+  <si>
+    <t>policy affects fuel suppliers.  It doesn't affect driving behavior by plug-in hybrid owners.</t>
+  </si>
+  <si>
+    <t>Accordingly, we set the maximum electricity share equal to the BAU electricity share.</t>
+  </si>
+  <si>
+    <t>Note that for Mexico, passenger rail represents subways, and so 100% of its fuel use</t>
+  </si>
+  <si>
+    <t>is electricity.</t>
+  </si>
 </sst>
 </file>
 
@@ -331,7 +355,7 @@
       <alignment horizontal="left"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -340,6 +364,7 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="8">
     <cellStyle name="Body: normal cell" xfId="4"/>
@@ -648,21 +673,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B48"/>
+  <dimension ref="A1:B57"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="69.28515625" customWidth="1"/>
+    <col min="2" max="2" width="69.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -670,194 +697,234 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="B5" s="4">
         <v>2017</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="B10" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="B12" s="4" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="B16" s="3" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:1" ht="15" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:1" ht="15" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:1" ht="15" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A37" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A44" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A45" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A46" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A47" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A48" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A49" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A51" s="1" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A52" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A53" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
+    <row r="54" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A54" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A55" t="s">
         <v>43</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A56" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A57" s="1" t="s">
+        <v>55</v>
       </c>
     </row>
   </sheetData>
@@ -875,9 +942,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="22.5703125" customWidth="1"/>
+    <col min="1" max="1" width="22.54296875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:36" x14ac:dyDescent="0.25">
@@ -1771,9 +1838,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="22.5703125" customWidth="1"/>
+    <col min="1" max="1" width="22.54296875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:36" x14ac:dyDescent="0.25">
@@ -2667,9 +2734,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="22.5703125" customWidth="1"/>
+    <col min="1" max="1" width="22.54296875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:36" x14ac:dyDescent="0.25">
@@ -3598,9 +3665,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="22.5703125" customWidth="1"/>
+    <col min="1" max="1" width="22.54296875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:36" x14ac:dyDescent="0.25">
@@ -4529,9 +4596,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="22.5703125" customWidth="1"/>
+    <col min="1" max="1" width="22.54296875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:36" x14ac:dyDescent="0.25">
@@ -4646,109 +4713,109 @@
         <v>2</v>
       </c>
       <c r="B2" s="5">
-        <v>1</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="C2" s="5">
-        <v>1</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="D2" s="5">
-        <v>1</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="E2" s="5">
-        <v>1</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="F2" s="5">
-        <v>1</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="G2" s="5">
-        <v>1</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="H2" s="5">
-        <v>1</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="I2" s="5">
-        <v>1</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="J2" s="5">
-        <v>1</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="K2" s="5">
-        <v>1</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="L2" s="5">
-        <v>1</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="M2" s="5">
-        <v>1</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="N2" s="5">
-        <v>1</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="O2" s="5">
-        <v>1</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="P2" s="5">
-        <v>1</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="Q2" s="5">
-        <v>1</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="R2" s="5">
-        <v>1</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="S2" s="5">
-        <v>1</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="T2" s="5">
-        <v>1</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="U2" s="5">
-        <v>1</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="V2" s="5">
-        <v>1</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="W2" s="5">
-        <v>1</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="X2" s="5">
-        <v>1</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="Y2" s="5">
-        <v>1</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="Z2" s="5">
-        <v>1</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="AA2" s="5">
-        <v>1</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="AB2" s="5">
-        <v>1</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="AC2" s="5">
-        <v>1</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="AD2" s="5">
-        <v>1</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="AE2" s="5">
-        <v>1</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="AF2" s="5">
-        <v>1</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="AG2" s="5">
-        <v>1</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="AH2" s="5">
-        <v>1</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="AI2" s="5">
-        <v>1</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="AJ2" s="5">
-        <v>1</v>
+        <v>0.55000000000000004</v>
       </c>
     </row>
     <row r="3" spans="1:36" x14ac:dyDescent="0.25">
@@ -5460,7 +5527,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5475,9 +5542,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="22.5703125" customWidth="1"/>
+    <col min="1" max="1" width="22.54296875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:36" x14ac:dyDescent="0.25">
@@ -6371,9 +6438,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="22.5703125" customWidth="1"/>
+    <col min="1" max="1" width="22.54296875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:36" x14ac:dyDescent="0.25">
@@ -7267,9 +7334,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="22.5703125" customWidth="1"/>
+    <col min="1" max="1" width="22.54296875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:36" x14ac:dyDescent="0.25">
@@ -8198,9 +8265,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="22.5703125" customWidth="1"/>
+    <col min="1" max="1" width="22.54296875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:36" x14ac:dyDescent="0.25">
@@ -9126,7 +9193,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1">
@@ -9158,9 +9225,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="22.5703125" customWidth="1"/>
+    <col min="1" max="1" width="22.54296875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:36" x14ac:dyDescent="0.25">
@@ -9274,110 +9341,110 @@
       <c r="A2" t="s">
         <v>2</v>
       </c>
-      <c r="B2">
-        <v>1</v>
-      </c>
-      <c r="C2">
-        <v>1</v>
-      </c>
-      <c r="D2">
-        <v>1</v>
-      </c>
-      <c r="E2">
-        <v>1</v>
-      </c>
-      <c r="F2">
-        <v>1</v>
-      </c>
-      <c r="G2">
-        <v>1</v>
-      </c>
-      <c r="H2">
-        <v>1</v>
-      </c>
-      <c r="I2">
-        <v>1</v>
-      </c>
-      <c r="J2">
-        <v>1</v>
-      </c>
-      <c r="K2">
-        <v>1</v>
-      </c>
-      <c r="L2">
-        <v>1</v>
-      </c>
-      <c r="M2">
-        <v>1</v>
-      </c>
-      <c r="N2">
-        <v>1</v>
-      </c>
-      <c r="O2">
-        <v>1</v>
-      </c>
-      <c r="P2">
-        <v>1</v>
-      </c>
-      <c r="Q2">
-        <v>1</v>
-      </c>
-      <c r="R2">
-        <v>1</v>
-      </c>
-      <c r="S2">
-        <v>1</v>
-      </c>
-      <c r="T2">
-        <v>1</v>
-      </c>
-      <c r="U2">
-        <v>1</v>
-      </c>
-      <c r="V2">
-        <v>1</v>
-      </c>
-      <c r="W2">
-        <v>1</v>
-      </c>
-      <c r="X2">
-        <v>1</v>
-      </c>
-      <c r="Y2">
-        <v>1</v>
-      </c>
-      <c r="Z2">
-        <v>1</v>
-      </c>
-      <c r="AA2">
-        <v>1</v>
-      </c>
-      <c r="AB2">
-        <v>1</v>
-      </c>
-      <c r="AC2">
-        <v>1</v>
-      </c>
-      <c r="AD2">
-        <v>1</v>
-      </c>
-      <c r="AE2">
-        <v>1</v>
-      </c>
-      <c r="AF2">
-        <v>1</v>
-      </c>
-      <c r="AG2">
-        <v>1</v>
-      </c>
-      <c r="AH2">
-        <v>1</v>
-      </c>
-      <c r="AI2">
-        <v>1</v>
-      </c>
-      <c r="AJ2">
-        <v>1</v>
+      <c r="B2" s="5">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="C2" s="5">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="D2" s="5">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="E2" s="5">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="F2" s="5">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="G2" s="5">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="H2" s="5">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="I2" s="5">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="J2" s="5">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="K2" s="5">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="L2" s="5">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="M2" s="5">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="N2" s="5">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="O2" s="5">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="P2" s="5">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="Q2" s="5">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="R2" s="5">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="S2" s="5">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="T2" s="5">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="U2" s="5">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="V2" s="5">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="W2" s="5">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="X2" s="5">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="Y2" s="5">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="Z2" s="5">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="AA2" s="5">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="AB2" s="5">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="AC2" s="5">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="AD2" s="5">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="AE2" s="5">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="AF2" s="5">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="AG2" s="5">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="AH2" s="5">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="AI2" s="5">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="AJ2" s="5">
+        <v>0.55000000000000004</v>
       </c>
     </row>
     <row r="3" spans="1:36" x14ac:dyDescent="0.25">
@@ -10089,7 +10156,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -10104,9 +10171,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="22.5703125" customWidth="1"/>
+    <col min="1" max="1" width="22.54296875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:36" x14ac:dyDescent="0.25">
@@ -11000,9 +11067,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="22.5703125" customWidth="1"/>
+    <col min="1" max="1" width="22.54296875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:36" x14ac:dyDescent="0.25">
@@ -11896,9 +11963,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="22.5703125" customWidth="1"/>
+    <col min="1" max="1" width="22.54296875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:36" x14ac:dyDescent="0.25">
@@ -12827,9 +12894,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="22.5703125" customWidth="1"/>
+    <col min="1" max="1" width="22.54296875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:36" x14ac:dyDescent="0.25">
@@ -13756,13 +13823,11 @@
   </sheetPr>
   <dimension ref="A1:AJ8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C30" sqref="C30"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="22.5703125" customWidth="1"/>
+    <col min="1" max="1" width="22.54296875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:36" x14ac:dyDescent="0.25">
@@ -13876,110 +13941,110 @@
       <c r="A2" t="s">
         <v>2</v>
       </c>
-      <c r="B2">
-        <v>1</v>
-      </c>
-      <c r="C2">
-        <v>1</v>
-      </c>
-      <c r="D2">
-        <v>1</v>
-      </c>
-      <c r="E2">
-        <v>1</v>
-      </c>
-      <c r="F2">
-        <v>1</v>
-      </c>
-      <c r="G2">
-        <v>1</v>
-      </c>
-      <c r="H2">
-        <v>1</v>
-      </c>
-      <c r="I2">
-        <v>1</v>
-      </c>
-      <c r="J2">
-        <v>1</v>
-      </c>
-      <c r="K2">
-        <v>1</v>
-      </c>
-      <c r="L2">
-        <v>1</v>
-      </c>
-      <c r="M2">
-        <v>1</v>
-      </c>
-      <c r="N2">
-        <v>1</v>
-      </c>
-      <c r="O2">
-        <v>1</v>
-      </c>
-      <c r="P2">
-        <v>1</v>
-      </c>
-      <c r="Q2">
-        <v>1</v>
-      </c>
-      <c r="R2">
-        <v>1</v>
-      </c>
-      <c r="S2">
-        <v>1</v>
-      </c>
-      <c r="T2">
-        <v>1</v>
-      </c>
-      <c r="U2">
-        <v>1</v>
-      </c>
-      <c r="V2">
-        <v>1</v>
-      </c>
-      <c r="W2">
-        <v>1</v>
-      </c>
-      <c r="X2">
-        <v>1</v>
-      </c>
-      <c r="Y2">
-        <v>1</v>
-      </c>
-      <c r="Z2">
-        <v>1</v>
-      </c>
-      <c r="AA2">
-        <v>1</v>
-      </c>
-      <c r="AB2">
-        <v>1</v>
-      </c>
-      <c r="AC2">
-        <v>1</v>
-      </c>
-      <c r="AD2">
-        <v>1</v>
-      </c>
-      <c r="AE2">
-        <v>1</v>
-      </c>
-      <c r="AF2">
-        <v>1</v>
-      </c>
-      <c r="AG2">
-        <v>1</v>
-      </c>
-      <c r="AH2">
-        <v>1</v>
-      </c>
-      <c r="AI2">
-        <v>1</v>
-      </c>
-      <c r="AJ2">
-        <v>1</v>
+      <c r="B2" s="5">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="C2" s="5">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="D2" s="5">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="E2" s="5">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="F2" s="5">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="G2" s="5">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="H2" s="5">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="I2" s="5">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="J2" s="5">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="K2" s="5">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="L2" s="5">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="M2" s="5">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="N2" s="5">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="O2" s="5">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="P2" s="5">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="Q2" s="5">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="R2" s="5">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="S2" s="5">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="T2" s="5">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="U2" s="5">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="V2" s="5">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="W2" s="5">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="X2" s="5">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="Y2" s="5">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="Z2" s="5">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="AA2" s="5">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="AB2" s="5">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="AC2" s="5">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="AD2" s="5">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="AE2" s="5">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="AF2" s="5">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="AG2" s="5">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="AH2" s="5">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="AI2" s="5">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="AJ2" s="5">
+        <v>0.55000000000000004</v>
       </c>
     </row>
     <row r="3" spans="1:36" x14ac:dyDescent="0.25">
@@ -14691,7 +14756,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -14706,9 +14771,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="22.5703125" customWidth="1"/>
+    <col min="1" max="1" width="22.54296875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:36" x14ac:dyDescent="0.25">
@@ -15602,9 +15667,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="22.5703125" customWidth="1"/>
+    <col min="1" max="1" width="22.54296875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:36" x14ac:dyDescent="0.25">
@@ -16498,7 +16563,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -16513,9 +16578,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="22.5703125" customWidth="1"/>
+    <col min="1" max="1" width="22.54296875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:36" x14ac:dyDescent="0.25">
@@ -16629,219 +16694,219 @@
       <c r="A2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="2">
-        <v>0.52220450505309601</v>
-      </c>
-      <c r="C2" s="2">
-        <v>0.522311233460654</v>
-      </c>
-      <c r="D2" s="2">
-        <v>0.52147192999436209</v>
-      </c>
-      <c r="E2" s="2">
-        <v>0.52238761776697107</v>
-      </c>
-      <c r="F2" s="2">
-        <v>0.52267268981654258</v>
-      </c>
-      <c r="G2" s="2">
-        <v>0.52289476421347458</v>
-      </c>
-      <c r="H2" s="2">
-        <v>0.52309732515990703</v>
-      </c>
-      <c r="I2" s="2">
-        <v>0.52278076492134651</v>
-      </c>
-      <c r="J2" s="2">
-        <v>0.52245741914430033</v>
-      </c>
-      <c r="K2" s="2">
-        <v>0.52227441068339109</v>
-      </c>
-      <c r="L2" s="2">
-        <v>0.52203778359570874</v>
-      </c>
-      <c r="M2" s="2">
-        <v>0.52166018881312992</v>
-      </c>
-      <c r="N2" s="2">
-        <v>0.52113068116102312</v>
-      </c>
-      <c r="O2" s="2">
-        <v>0.52081408299942489</v>
-      </c>
-      <c r="P2" s="2">
-        <v>0.5206120577371115</v>
-      </c>
-      <c r="Q2" s="2">
-        <v>0.52039540945815244</v>
-      </c>
-      <c r="R2" s="2">
-        <v>0.52020355520701167</v>
-      </c>
-      <c r="S2" s="2">
-        <v>0.51971740858432347</v>
-      </c>
-      <c r="T2" s="2">
-        <v>0.51943468243694257</v>
-      </c>
-      <c r="U2" s="2">
-        <v>0.5190603500592037</v>
-      </c>
-      <c r="V2" s="2">
-        <v>0.51893973679154604</v>
-      </c>
-      <c r="W2" s="2">
-        <v>0.51850807685912537</v>
-      </c>
-      <c r="X2" s="2">
-        <v>0.51811802886128555</v>
-      </c>
-      <c r="Y2" s="2">
-        <v>0.51788154775524253</v>
-      </c>
-      <c r="Z2" s="2">
-        <v>0.51754153072312192</v>
-      </c>
-      <c r="AA2" s="2">
-        <v>0.51717996465551286</v>
-      </c>
-      <c r="AB2" s="2">
-        <v>0.51676307000485688</v>
-      </c>
-      <c r="AC2" s="2">
-        <v>0.51636142105175964</v>
-      </c>
-      <c r="AD2" s="2">
-        <v>0.51597415903020361</v>
-      </c>
-      <c r="AE2" s="2">
-        <v>0.51557418698896507</v>
-      </c>
-      <c r="AF2" s="2">
-        <v>0.51516912918477953</v>
-      </c>
-      <c r="AG2" s="2">
-        <v>0.51479775750168699</v>
-      </c>
-      <c r="AH2" s="2">
-        <v>0.51432047627523747</v>
-      </c>
-      <c r="AI2" s="2">
-        <v>0.51397815537679503</v>
-      </c>
-      <c r="AJ2" s="2">
-        <v>0.51376954714774958</v>
+      <c r="B2" s="6">
+        <v>1</v>
+      </c>
+      <c r="C2" s="6">
+        <v>1</v>
+      </c>
+      <c r="D2" s="6">
+        <v>1</v>
+      </c>
+      <c r="E2" s="6">
+        <v>1</v>
+      </c>
+      <c r="F2" s="6">
+        <v>1</v>
+      </c>
+      <c r="G2" s="6">
+        <v>1</v>
+      </c>
+      <c r="H2" s="6">
+        <v>1</v>
+      </c>
+      <c r="I2" s="6">
+        <v>1</v>
+      </c>
+      <c r="J2" s="6">
+        <v>1</v>
+      </c>
+      <c r="K2" s="6">
+        <v>1</v>
+      </c>
+      <c r="L2" s="6">
+        <v>1</v>
+      </c>
+      <c r="M2" s="6">
+        <v>1</v>
+      </c>
+      <c r="N2" s="6">
+        <v>1</v>
+      </c>
+      <c r="O2" s="6">
+        <v>1</v>
+      </c>
+      <c r="P2" s="6">
+        <v>1</v>
+      </c>
+      <c r="Q2" s="6">
+        <v>1</v>
+      </c>
+      <c r="R2" s="6">
+        <v>1</v>
+      </c>
+      <c r="S2" s="6">
+        <v>1</v>
+      </c>
+      <c r="T2" s="6">
+        <v>1</v>
+      </c>
+      <c r="U2" s="6">
+        <v>1</v>
+      </c>
+      <c r="V2" s="6">
+        <v>1</v>
+      </c>
+      <c r="W2" s="6">
+        <v>1</v>
+      </c>
+      <c r="X2" s="6">
+        <v>1</v>
+      </c>
+      <c r="Y2" s="6">
+        <v>1</v>
+      </c>
+      <c r="Z2" s="6">
+        <v>1</v>
+      </c>
+      <c r="AA2" s="6">
+        <v>1</v>
+      </c>
+      <c r="AB2" s="6">
+        <v>1</v>
+      </c>
+      <c r="AC2" s="6">
+        <v>1</v>
+      </c>
+      <c r="AD2" s="6">
+        <v>1</v>
+      </c>
+      <c r="AE2" s="6">
+        <v>1</v>
+      </c>
+      <c r="AF2" s="6">
+        <v>1</v>
+      </c>
+      <c r="AG2" s="6">
+        <v>1</v>
+      </c>
+      <c r="AH2" s="6">
+        <v>1</v>
+      </c>
+      <c r="AI2" s="6">
+        <v>1</v>
+      </c>
+      <c r="AJ2" s="6">
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="2">
-        <v>0</v>
-      </c>
-      <c r="C3" s="2">
-        <v>0</v>
-      </c>
-      <c r="D3" s="2">
-        <v>0</v>
-      </c>
-      <c r="E3" s="2">
-        <v>0</v>
-      </c>
-      <c r="F3" s="2">
-        <v>0</v>
-      </c>
-      <c r="G3" s="2">
-        <v>0</v>
-      </c>
-      <c r="H3" s="2">
-        <v>0</v>
-      </c>
-      <c r="I3" s="2">
-        <v>0</v>
-      </c>
-      <c r="J3" s="2">
-        <v>0</v>
-      </c>
-      <c r="K3" s="2">
-        <v>0</v>
-      </c>
-      <c r="L3" s="2">
-        <v>0</v>
-      </c>
-      <c r="M3" s="2">
-        <v>0</v>
-      </c>
-      <c r="N3" s="2">
-        <v>0</v>
-      </c>
-      <c r="O3" s="2">
-        <v>0</v>
-      </c>
-      <c r="P3" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q3" s="2">
-        <v>0</v>
-      </c>
-      <c r="R3" s="2">
-        <v>0</v>
-      </c>
-      <c r="S3" s="2">
-        <v>0</v>
-      </c>
-      <c r="T3" s="2">
-        <v>0</v>
-      </c>
-      <c r="U3" s="2">
-        <v>0</v>
-      </c>
-      <c r="V3" s="2">
-        <v>0</v>
-      </c>
-      <c r="W3" s="2">
-        <v>0</v>
-      </c>
-      <c r="X3" s="2">
-        <v>0</v>
-      </c>
-      <c r="Y3" s="2">
-        <v>0</v>
-      </c>
-      <c r="Z3" s="2">
-        <v>0</v>
-      </c>
-      <c r="AA3" s="2">
-        <v>0</v>
-      </c>
-      <c r="AB3" s="2">
-        <v>0</v>
-      </c>
-      <c r="AC3" s="2">
-        <v>0</v>
-      </c>
-      <c r="AD3" s="2">
-        <v>0</v>
-      </c>
-      <c r="AE3" s="2">
-        <v>0</v>
-      </c>
-      <c r="AF3" s="2">
-        <v>0</v>
-      </c>
-      <c r="AG3" s="2">
-        <v>0</v>
-      </c>
-      <c r="AH3" s="2">
-        <v>0</v>
-      </c>
-      <c r="AI3" s="2">
-        <v>0</v>
-      </c>
-      <c r="AJ3" s="2">
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+      <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+      <c r="T3">
+        <v>0</v>
+      </c>
+      <c r="U3">
+        <v>0</v>
+      </c>
+      <c r="V3">
+        <v>0</v>
+      </c>
+      <c r="W3">
+        <v>0</v>
+      </c>
+      <c r="X3">
+        <v>0</v>
+      </c>
+      <c r="Y3">
+        <v>0</v>
+      </c>
+      <c r="Z3">
+        <v>0</v>
+      </c>
+      <c r="AA3">
+        <v>0</v>
+      </c>
+      <c r="AB3">
+        <v>0</v>
+      </c>
+      <c r="AC3">
+        <v>0</v>
+      </c>
+      <c r="AD3">
+        <v>0</v>
+      </c>
+      <c r="AE3">
+        <v>0</v>
+      </c>
+      <c r="AF3">
+        <v>0</v>
+      </c>
+      <c r="AG3">
+        <v>0</v>
+      </c>
+      <c r="AH3">
+        <v>0</v>
+      </c>
+      <c r="AI3">
+        <v>0</v>
+      </c>
+      <c r="AJ3">
         <v>0</v>
       </c>
     </row>
@@ -16959,110 +17024,110 @@
       <c r="A5" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="2">
-        <v>0.47779547250590448</v>
-      </c>
-      <c r="C5" s="2">
-        <v>0.47768872231235682</v>
-      </c>
-      <c r="D5" s="2">
-        <v>0.47852807000563785</v>
-      </c>
-      <c r="E5" s="2">
-        <v>0.47761246818255859</v>
-      </c>
-      <c r="F5" s="2">
-        <v>0.47732737387526114</v>
-      </c>
-      <c r="G5" s="2">
-        <v>0.47710523578652547</v>
-      </c>
-      <c r="H5" s="2">
-        <v>0.47690265415897409</v>
-      </c>
-      <c r="I5" s="2">
-        <v>0.47721929625973342</v>
-      </c>
-      <c r="J5" s="2">
-        <v>0.47754252050162527</v>
-      </c>
-      <c r="K5" s="2">
-        <v>0.4777255495623855</v>
-      </c>
-      <c r="L5" s="2">
-        <v>0.47796215743124915</v>
-      </c>
-      <c r="M5" s="2">
-        <v>0.47833985003650892</v>
-      </c>
-      <c r="N5" s="2">
-        <v>0.47886937637168769</v>
-      </c>
-      <c r="O5" s="2">
-        <v>0.4791859359633075</v>
-      </c>
-      <c r="P5" s="2">
-        <v>0.47938792348087506</v>
-      </c>
-      <c r="Q5" s="2">
-        <v>0.47960455331443641</v>
-      </c>
-      <c r="R5" s="2">
-        <v>0.47979638947245901</v>
-      </c>
-      <c r="S5" s="2">
-        <v>0.48028251845251924</v>
-      </c>
-      <c r="T5" s="2">
-        <v>0.48056535367201864</v>
-      </c>
-      <c r="U5" s="2">
-        <v>0.48093972141266428</v>
-      </c>
-      <c r="V5" s="2">
-        <v>0.48106024550593729</v>
-      </c>
-      <c r="W5" s="2">
-        <v>0.48149185304955677</v>
-      </c>
-      <c r="X5" s="2">
-        <v>0.48188195379296189</v>
-      </c>
-      <c r="Y5" s="2">
-        <v>0.48211846943411552</v>
-      </c>
-      <c r="Z5" s="2">
-        <v>0.48245846927687813</v>
-      </c>
-      <c r="AA5" s="2">
-        <v>0.48282001845264655</v>
-      </c>
-      <c r="AB5" s="2">
-        <v>0.4832369467384226</v>
-      </c>
-      <c r="AC5" s="2">
-        <v>0.48363859554889349</v>
-      </c>
-      <c r="AD5" s="2">
-        <v>0.48402580803827483</v>
-      </c>
-      <c r="AE5" s="2">
-        <v>0.48442582934478207</v>
-      </c>
-      <c r="AF5" s="2">
-        <v>0.48483085461005448</v>
-      </c>
-      <c r="AG5" s="2">
-        <v>0.48520230683383675</v>
-      </c>
-      <c r="AH5" s="2">
-        <v>0.48567949180248743</v>
-      </c>
-      <c r="AI5" s="2">
-        <v>0.48602179709866489</v>
-      </c>
-      <c r="AJ5" s="2">
-        <v>0.48623048430982629</v>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+      <c r="T5">
+        <v>0</v>
+      </c>
+      <c r="U5">
+        <v>0</v>
+      </c>
+      <c r="V5">
+        <v>0</v>
+      </c>
+      <c r="W5">
+        <v>0</v>
+      </c>
+      <c r="X5">
+        <v>0</v>
+      </c>
+      <c r="Y5">
+        <v>0</v>
+      </c>
+      <c r="Z5">
+        <v>0</v>
+      </c>
+      <c r="AA5">
+        <v>0</v>
+      </c>
+      <c r="AB5">
+        <v>0</v>
+      </c>
+      <c r="AC5">
+        <v>0</v>
+      </c>
+      <c r="AD5">
+        <v>0</v>
+      </c>
+      <c r="AE5">
+        <v>0</v>
+      </c>
+      <c r="AF5">
+        <v>0</v>
+      </c>
+      <c r="AG5">
+        <v>0</v>
+      </c>
+      <c r="AH5">
+        <v>0</v>
+      </c>
+      <c r="AI5">
+        <v>0</v>
+      </c>
+      <c r="AJ5">
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:36" x14ac:dyDescent="0.25">
@@ -17179,109 +17244,109 @@
       <c r="A7" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="2">
-        <v>0</v>
-      </c>
-      <c r="C7" s="2">
-        <v>0</v>
-      </c>
-      <c r="D7" s="2">
-        <v>0</v>
-      </c>
-      <c r="E7" s="2">
-        <v>0</v>
-      </c>
-      <c r="F7" s="2">
-        <v>0</v>
-      </c>
-      <c r="G7" s="2">
-        <v>0</v>
-      </c>
-      <c r="H7" s="2">
-        <v>0</v>
-      </c>
-      <c r="I7" s="2">
-        <v>0</v>
-      </c>
-      <c r="J7" s="2">
-        <v>0</v>
-      </c>
-      <c r="K7" s="2">
-        <v>0</v>
-      </c>
-      <c r="L7" s="2">
-        <v>0</v>
-      </c>
-      <c r="M7" s="2">
-        <v>0</v>
-      </c>
-      <c r="N7" s="2">
-        <v>0</v>
-      </c>
-      <c r="O7" s="2">
-        <v>0</v>
-      </c>
-      <c r="P7" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q7" s="2">
-        <v>0</v>
-      </c>
-      <c r="R7" s="2">
-        <v>0</v>
-      </c>
-      <c r="S7" s="2">
-        <v>0</v>
-      </c>
-      <c r="T7" s="2">
-        <v>0</v>
-      </c>
-      <c r="U7" s="2">
-        <v>0</v>
-      </c>
-      <c r="V7" s="2">
-        <v>0</v>
-      </c>
-      <c r="W7" s="2">
-        <v>0</v>
-      </c>
-      <c r="X7" s="2">
-        <v>0</v>
-      </c>
-      <c r="Y7" s="2">
-        <v>0</v>
-      </c>
-      <c r="Z7" s="2">
-        <v>0</v>
-      </c>
-      <c r="AA7" s="2">
-        <v>0</v>
-      </c>
-      <c r="AB7" s="2">
-        <v>0</v>
-      </c>
-      <c r="AC7" s="2">
-        <v>0</v>
-      </c>
-      <c r="AD7" s="2">
-        <v>0</v>
-      </c>
-      <c r="AE7" s="2">
-        <v>0</v>
-      </c>
-      <c r="AF7" s="2">
-        <v>0</v>
-      </c>
-      <c r="AG7" s="2">
-        <v>0</v>
-      </c>
-      <c r="AH7" s="2">
-        <v>0</v>
-      </c>
-      <c r="AI7" s="2">
-        <v>0</v>
-      </c>
-      <c r="AJ7" s="2">
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <v>0</v>
+      </c>
+      <c r="L7">
+        <v>0</v>
+      </c>
+      <c r="M7">
+        <v>0</v>
+      </c>
+      <c r="N7">
+        <v>0</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
+      <c r="P7">
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <v>0</v>
+      </c>
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+      <c r="T7">
+        <v>0</v>
+      </c>
+      <c r="U7">
+        <v>0</v>
+      </c>
+      <c r="V7">
+        <v>0</v>
+      </c>
+      <c r="W7">
+        <v>0</v>
+      </c>
+      <c r="X7">
+        <v>0</v>
+      </c>
+      <c r="Y7">
+        <v>0</v>
+      </c>
+      <c r="Z7">
+        <v>0</v>
+      </c>
+      <c r="AA7">
+        <v>0</v>
+      </c>
+      <c r="AB7">
+        <v>0</v>
+      </c>
+      <c r="AC7">
+        <v>0</v>
+      </c>
+      <c r="AD7">
+        <v>0</v>
+      </c>
+      <c r="AE7">
+        <v>0</v>
+      </c>
+      <c r="AF7">
+        <v>0</v>
+      </c>
+      <c r="AG7">
+        <v>0</v>
+      </c>
+      <c r="AH7">
+        <v>0</v>
+      </c>
+      <c r="AI7">
+        <v>0</v>
+      </c>
+      <c r="AJ7">
         <v>0</v>
       </c>
     </row>
@@ -17409,9 +17474,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="22.5703125" customWidth="1"/>
+    <col min="1" max="1" width="22.54296875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:36" x14ac:dyDescent="0.25">
@@ -18305,9 +18370,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="22.5703125" customWidth="1"/>
+    <col min="1" max="1" width="22.54296875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:36" x14ac:dyDescent="0.25">
@@ -19201,9 +19266,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="22.5703125" customWidth="1"/>
+    <col min="1" max="1" width="22.54296875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:36" x14ac:dyDescent="0.25">
@@ -20097,7 +20162,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -20112,9 +20177,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="22.5703125" customWidth="1"/>
+    <col min="1" max="1" width="22.54296875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:36" x14ac:dyDescent="0.25">
@@ -21008,9 +21073,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="22.5703125" customWidth="1"/>
+    <col min="1" max="1" width="22.54296875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:36" x14ac:dyDescent="0.25">
@@ -21904,9 +21969,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="22.5703125" customWidth="1"/>
+    <col min="1" max="1" width="22.54296875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:36" x14ac:dyDescent="0.25">
@@ -22835,9 +22900,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="22.5703125" customWidth="1"/>
+    <col min="1" max="1" width="22.54296875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:36" x14ac:dyDescent="0.25">
@@ -23766,9 +23831,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="22.5703125" customWidth="1"/>
+    <col min="1" max="1" width="22.54296875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:36" x14ac:dyDescent="0.25">
@@ -23883,109 +23948,109 @@
         <v>2</v>
       </c>
       <c r="B2" s="5">
-        <v>1</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="C2" s="5">
-        <v>1</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="D2" s="5">
-        <v>1</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="E2" s="5">
-        <v>1</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="F2" s="5">
-        <v>1</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="G2" s="5">
-        <v>1</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="H2" s="5">
-        <v>1</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="I2" s="5">
-        <v>1</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="J2" s="5">
-        <v>1</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="K2" s="5">
-        <v>1</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="L2" s="5">
-        <v>1</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="M2" s="5">
-        <v>1</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="N2" s="5">
-        <v>1</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="O2" s="5">
-        <v>1</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="P2" s="5">
-        <v>1</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="Q2" s="5">
-        <v>1</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="R2" s="5">
-        <v>1</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="S2" s="5">
-        <v>1</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="T2" s="5">
-        <v>1</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="U2" s="5">
-        <v>1</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="V2" s="5">
-        <v>1</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="W2" s="5">
-        <v>1</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="X2" s="5">
-        <v>1</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="Y2" s="5">
-        <v>1</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="Z2" s="5">
-        <v>1</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="AA2" s="5">
-        <v>1</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="AB2" s="5">
-        <v>1</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="AC2" s="5">
-        <v>1</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="AD2" s="5">
-        <v>1</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="AE2" s="5">
-        <v>1</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="AF2" s="5">
-        <v>1</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="AG2" s="5">
-        <v>1</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="AH2" s="5">
-        <v>1</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="AI2" s="5">
-        <v>1</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="AJ2" s="5">
-        <v>1</v>
+        <v>0.55000000000000004</v>
       </c>
     </row>
     <row r="3" spans="1:36" x14ac:dyDescent="0.25">
@@ -24697,9 +24762,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="22.5703125" customWidth="1"/>
+    <col min="1" max="1" width="22.54296875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:36" x14ac:dyDescent="0.25">
@@ -25593,7 +25658,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -25608,9 +25673,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="22.5703125" customWidth="1"/>
+    <col min="1" max="1" width="22.54296875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:36" x14ac:dyDescent="0.25">
@@ -26504,9 +26569,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="22.5703125" customWidth="1"/>
+    <col min="1" max="1" width="22.54296875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:36" x14ac:dyDescent="0.25">
@@ -27400,9 +27465,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="22.5703125" customWidth="1"/>
+    <col min="1" max="1" width="22.54296875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:36" x14ac:dyDescent="0.25">
@@ -28331,9 +28396,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="22.5703125" customWidth="1"/>
+    <col min="1" max="1" width="22.54296875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:36" x14ac:dyDescent="0.25">
@@ -29262,9 +29327,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="22.5703125" customWidth="1"/>
+    <col min="1" max="1" width="22.54296875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:36" x14ac:dyDescent="0.25">
@@ -29379,109 +29444,109 @@
         <v>2</v>
       </c>
       <c r="B2" s="5">
-        <v>1</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="C2" s="5">
-        <v>1</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="D2" s="5">
-        <v>1</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="E2" s="5">
-        <v>1</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="F2" s="5">
-        <v>1</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="G2" s="5">
-        <v>1</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="H2" s="5">
-        <v>1</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="I2" s="5">
-        <v>1</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="J2" s="5">
-        <v>1</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="K2" s="5">
-        <v>1</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="L2" s="5">
-        <v>1</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="M2" s="5">
-        <v>1</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="N2" s="5">
-        <v>1</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="O2" s="5">
-        <v>1</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="P2" s="5">
-        <v>1</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="Q2" s="5">
-        <v>1</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="R2" s="5">
-        <v>1</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="S2" s="5">
-        <v>1</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="T2" s="5">
-        <v>1</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="U2" s="5">
-        <v>1</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="V2" s="5">
-        <v>1</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="W2" s="5">
-        <v>1</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="X2" s="5">
-        <v>1</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="Y2" s="5">
-        <v>1</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="Z2" s="5">
-        <v>1</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="AA2" s="5">
-        <v>1</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="AB2" s="5">
-        <v>1</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="AC2" s="5">
-        <v>1</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="AD2" s="5">
-        <v>1</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="AE2" s="5">
-        <v>1</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="AF2" s="5">
-        <v>1</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="AG2" s="5">
-        <v>1</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="AH2" s="5">
-        <v>1</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="AI2" s="5">
-        <v>1</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="AJ2" s="5">
-        <v>1</v>
+        <v>0.55000000000000004</v>
       </c>
     </row>
     <row r="3" spans="1:36" x14ac:dyDescent="0.25">
@@ -30193,9 +30258,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="22.5703125" customWidth="1"/>
+    <col min="1" max="1" width="22.54296875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:36" x14ac:dyDescent="0.25">
@@ -31089,9 +31154,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="22.5703125" customWidth="1"/>
+    <col min="1" max="1" width="22.54296875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:36" x14ac:dyDescent="0.25">
@@ -32020,9 +32085,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="22.5703125" customWidth="1"/>
+    <col min="1" max="1" width="22.54296875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:36" x14ac:dyDescent="0.25">
@@ -32951,9 +33016,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="22.5703125" customWidth="1"/>
+    <col min="1" max="1" width="22.54296875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:36" x14ac:dyDescent="0.25">
@@ -33068,109 +33133,109 @@
         <v>2</v>
       </c>
       <c r="B2" s="5">
-        <v>1</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="C2" s="5">
-        <v>1</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="D2" s="5">
-        <v>1</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="E2" s="5">
-        <v>1</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="F2" s="5">
-        <v>1</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="G2" s="5">
-        <v>1</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="H2" s="5">
-        <v>1</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="I2" s="5">
-        <v>1</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="J2" s="5">
-        <v>1</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="K2" s="5">
-        <v>1</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="L2" s="5">
-        <v>1</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="M2" s="5">
-        <v>1</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="N2" s="5">
-        <v>1</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="O2" s="5">
-        <v>1</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="P2" s="5">
-        <v>1</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="Q2" s="5">
-        <v>1</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="R2" s="5">
-        <v>1</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="S2" s="5">
-        <v>1</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="T2" s="5">
-        <v>1</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="U2" s="5">
-        <v>1</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="V2" s="5">
-        <v>1</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="W2" s="5">
-        <v>1</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="X2" s="5">
-        <v>1</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="Y2" s="5">
-        <v>1</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="Z2" s="5">
-        <v>1</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="AA2" s="5">
-        <v>1</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="AB2" s="5">
-        <v>1</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="AC2" s="5">
-        <v>1</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="AD2" s="5">
-        <v>1</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="AE2" s="5">
-        <v>1</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="AF2" s="5">
-        <v>1</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="AG2" s="5">
-        <v>1</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="AH2" s="5">
-        <v>1</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="AI2" s="5">
-        <v>1</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="AJ2" s="5">
-        <v>1</v>
+        <v>0.55000000000000004</v>
       </c>
     </row>
     <row r="3" spans="1:36" x14ac:dyDescent="0.25">
@@ -33885,7 +33950,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
